--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mitchell Ross Marsh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1181,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1632,7 +1696,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2315,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2404,7 +2466,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3296,7 +3357,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3348,7 +3409,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3400,7 +3461,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3452,7 +3513,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3504,7 +3565,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3556,7 +3617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3608,7 +3669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3660,7 +3721,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3712,7 +3773,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3764,7 +3825,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3816,7 +3877,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3868,7 +3929,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,7 +3981,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3972,7 +4033,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4076,7 +4137,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4128,7 +4189,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4180,7 +4241,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4219,7 +4280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4241,7 +4302,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4278,7 +4339,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4315,7 +4376,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4352,7 +4413,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4389,7 +4450,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4426,7 +4487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4463,7 +4524,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4500,7 +4561,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4537,7 +4598,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4574,7 +4635,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4611,7 +4672,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4648,7 +4709,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4685,7 +4746,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4722,7 +4783,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4759,7 +4820,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4796,7 +4857,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4833,7 +4894,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4870,7 +4931,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4907,7 +4968,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4944,7 +5005,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4981,7 +5042,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5018,7 +5079,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5055,7 +5116,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5092,7 +5153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5129,7 +5190,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5166,7 +5227,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5203,7 +5264,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5240,7 +5301,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5277,7 +5338,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5314,7 +5375,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5351,7 +5412,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5388,7 +5449,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5425,7 +5486,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5462,7 +5523,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5499,7 +5560,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5536,7 +5597,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5573,7 +5634,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5610,7 +5671,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5647,7 +5708,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5684,7 +5745,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5721,7 +5782,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5758,7 +5819,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5795,7 +5856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5832,7 +5893,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5869,7 +5930,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5906,7 +5967,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5943,7 +6004,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5980,7 +6041,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6017,7 +6078,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6054,7 +6115,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6091,7 +6152,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6128,7 +6189,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6165,7 +6226,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6202,7 +6263,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6239,7 +6300,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6276,7 +6337,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6313,7 +6374,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6350,7 +6411,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6387,7 +6448,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6424,7 +6485,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6461,7 +6522,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6498,7 +6559,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6535,7 +6596,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6572,7 +6633,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6609,7 +6670,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6635,6 +6696,573 @@
       <c r="G65" t="inlineStr">
         <is>
           <t>1/18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.37%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.47%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.83%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.24%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14.63%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17.47%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6816,10 +6817,6 @@
           <t>4419</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6832,10 +6829,6 @@
           <t>4421</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7028,10 +7021,6 @@
           <t>4486</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7044,10 +7033,6 @@
           <t>4600</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7150,10 +7135,6 @@
           <t>4663</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7166,10 +7147,6 @@
           <t>4666</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7265,6 +7242,310 @@
           <t>NO</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1194,7 +1193,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2328,7 +2327,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6817,6 +6816,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6829,6 +6832,10 @@
           <t>4421</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7021,6 +7028,10 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7033,6 +7044,10 @@
           <t>4600</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7135,6 +7150,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7147,6 +7166,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7242,310 +7265,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3973</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4108</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4115</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4117</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4125</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3912.xlsx
@@ -6710,7 +6710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6753,27 +6753,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4125</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.26%</t>
-        </is>
-      </c>
+          <t>3339</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6783,11 +6769,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -6801,7 +6787,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6813,7 +6799,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -6829,7 +6815,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -6845,25 +6831,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.47%</t>
+          <t>25.43%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6875,15 +6861,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6893,7 +6879,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.83%</t>
+          <t>1.53%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6905,25 +6891,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6935,57 +6921,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>30.50%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.94%</t>
-        </is>
-      </c>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6995,27 +6967,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7025,13 +6983,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.51%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7041,13 +7013,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7057,27 +7043,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.24%</t>
-        </is>
-      </c>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7087,27 +7059,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14.63%</t>
-        </is>
-      </c>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7117,25 +7075,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7147,12 +7105,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
@@ -7163,13 +7131,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7179,25 +7161,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>43.09%</t>
+          <t>4.95%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7209,25 +7191,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>13.11%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7239,28 +7221,1284 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.71%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5.69%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.87%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5.74%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.38%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.47%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6.04%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3937</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8.68%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.11%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.49%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16.24%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7.37%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10.47%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.83%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10.24%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14.63%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>43.09%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>17.47%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
